--- a/Prophet/Performance Metric - MAE.xlsx
+++ b/Prophet/Performance Metric - MAE.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MAE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MAE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prophet MAE" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -459,6 +460,154 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Floor 10_aggr</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6661127402474974</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Floor 12_aggr</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1014305725509313</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Floor 14_aggr</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.500278915241627</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Floor 16_aggr</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.140483132099894</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Floor 3_aggr</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1077541551709751</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Floor 4_aggr</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2655428799490947</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Floor 6_aggr</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2690356419371498</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Floor 8_aggr</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3368032718712705</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>String Pots_aggr</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.53000918868094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Prophet/Performance Metric - MAE.xlsx
+++ b/Prophet/Performance Metric - MAE.xlsx
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6661127402474974</v>
+        <v>0.4147712986052281</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1014305725509313</v>
+        <v>0.09999565895742606</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.500278915241627</v>
+        <v>0.2021875542765255</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1077541551709751</v>
+        <v>0.1029787273645813</v>
       </c>
     </row>
     <row r="7">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2655428799490947</v>
+        <v>0.2350353010065291</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2690356419371498</v>
+        <v>0.1326798583002398</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3368032718712705</v>
+        <v>0.3293286587327779</v>
       </c>
     </row>
     <row r="10">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.53000918868094</v>
+        <v>0.1755939442914869</v>
       </c>
     </row>
   </sheetData>
